--- a/Test/Data.xlsx
+++ b/Test/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>asd-fgh-1983@mail.ru</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>東海林賢蔵</t>
+  </si>
+  <si>
+    <t>1,234,567</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -377,7 +380,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,8 +412,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1234567</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -421,5 +424,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>